--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3767151.875275758</v>
+        <v>3872457.574941612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7390976.414375987</v>
+        <v>7371098.608230963</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>306.3533321221818</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>131.6045095424851</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>108.8785818413208</v>
+        <v>183.5075633549403</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>61.05510538238496</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>20.29515656310081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>209.5725029308039</v>
       </c>
       <c r="V7" t="n">
-        <v>134.295706877828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>41.53554168227034</v>
+        <v>287.8938041265583</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>150.4380741938007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>138.3467445476594</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>35.41770597126713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>40.3285337992671</v>
       </c>
       <c r="H16" t="n">
-        <v>136.1078891637031</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>73.56194264363164</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>58.21786903648848</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>11.76284745948067</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.5202580022772</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.8567702508357</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261725</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652778</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>100.9025715636457</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>37.586232500086</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>35.6665036611733</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541852</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261747</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652571</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352484</v>
+        <v>108.3764982651487</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>150.4550614441516</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.047335491682</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C2" t="n">
-        <v>1365.084818551271</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792696</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531616</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.647175555804</v>
+        <v>1897.83159218888</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.2677753977071</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765778</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>1183.698370269494</v>
+        <v>385.0914841366271</v>
       </c>
       <c r="X4" t="n">
-        <v>955.7088193714769</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="Y4" t="n">
-        <v>734.9162402279468</v>
+        <v>157.1019332386097</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2500.667504781584</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2291.921863387409</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2291.921863387409</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.306770649777</v>
+        <v>1960.858976043838</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>1608.090320773724</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>1608.090320773724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>623.11813092506</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1322.173316690278</v>
       </c>
       <c r="V7" t="n">
-        <v>1378.189819315322</v>
+        <v>1322.173316690278</v>
       </c>
       <c r="W7" t="n">
-        <v>1088.772649278361</v>
+        <v>1032.756146653317</v>
       </c>
       <c r="X7" t="n">
-        <v>860.7830983803434</v>
+        <v>804.7665957552997</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.7830983803434</v>
+        <v>804.7665957552997</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>462.6853918125572</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408143</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427969</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.3338566427969</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101294</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>296.7882229101294</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>129.5921236250094</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E16" t="n">
-        <v>545.3854261579752</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F16" t="n">
-        <v>398.4954786600648</v>
+        <v>358.3510902843926</v>
       </c>
       <c r="G16" t="n">
-        <v>231.2993793749447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,10 +5548,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>3416.439860727478</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>3416.439860727478</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>3195.647281583948</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6217,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,7 +6259,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2424.885537872346</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2242.03070352725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2022.429238550191</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1733.354011894389</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.669523688502</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.252353651541</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X28" t="n">
-        <v>961.2628027535235</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535235</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,13 +6463,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319338</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656833</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150039</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942672</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580132</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345495</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>2876.560776129204</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>3278.063798229817</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2408.997192166032</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319338</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656833</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150018</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1981.370942808024</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="44">
@@ -7631,34 +7633,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>265.030432851514</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.9556134883061986</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>125.1956044930018</v>
       </c>
       <c r="H16" t="n">
-        <v>4.186823682520753</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>152.1477127454055</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>109.0289520621394</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>213.9468079295565</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>28.00274033431378</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.51847645928598</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>28.78901421003569</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>109.0289520621396</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>101.6825818796764</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644236.6431899798</v>
+        <v>651961.1489413719</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644236.6431899798</v>
+        <v>651961.1489413719</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633467.886304915</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633467.8863049148</v>
+        <v>633467.886304915</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644236.6431899798</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644236.6431899798</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644236.6431899798</v>
+        <v>633467.886304915</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644236.6431899798</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644236.6431899798</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
@@ -26323,37 +26325,37 @@
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363173</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551194</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309565</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309562</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744344</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="K4" t="n">
-        <v>16718.11565483778</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483775</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16718.11565483777</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16718.11565483777</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483778</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724077.2518344059</v>
+        <v>-542695.9673750708</v>
       </c>
       <c r="C6" t="n">
-        <v>604667.493893188</v>
+        <v>572055.8162008487</v>
       </c>
       <c r="D6" t="n">
-        <v>604667.4938931868</v>
+        <v>412040.3534528491</v>
       </c>
       <c r="E6" t="n">
-        <v>351705.6866747487</v>
+        <v>351705.6866747491</v>
       </c>
       <c r="F6" t="n">
-        <v>677118.1484821048</v>
+        <v>677118.1484821045</v>
       </c>
       <c r="G6" t="n">
         <v>677118.1484821045</v>
       </c>
       <c r="H6" t="n">
-        <v>677118.1484821046</v>
+        <v>677118.1484821044</v>
       </c>
       <c r="I6" t="n">
+        <v>677118.1484821045</v>
+      </c>
+      <c r="J6" t="n">
+        <v>509512.9706721221</v>
+      </c>
+      <c r="K6" t="n">
+        <v>677118.1484821045</v>
+      </c>
+      <c r="L6" t="n">
+        <v>628824.1784739135</v>
+      </c>
+      <c r="M6" t="n">
+        <v>592063.1205465926</v>
+      </c>
+      <c r="N6" t="n">
+        <v>677118.1484821045</v>
+      </c>
+      <c r="O6" t="n">
+        <v>677118.1484821043</v>
+      </c>
+      <c r="P6" t="n">
         <v>677118.1484821044</v>
-      </c>
-      <c r="J6" t="n">
-        <v>459586.9460848269</v>
-      </c>
-      <c r="K6" t="n">
-        <v>661205.776115292</v>
-      </c>
-      <c r="L6" t="n">
-        <v>680633.4941089227</v>
-      </c>
-      <c r="M6" t="n">
-        <v>595578.466173412</v>
-      </c>
-      <c r="N6" t="n">
-        <v>680633.4941089225</v>
-      </c>
-      <c r="O6" t="n">
-        <v>680633.4941089239</v>
-      </c>
-      <c r="P6" t="n">
-        <v>677118.1484821043</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>76.38050954129875</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>223.0785320781978</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>177.6444164952701</v>
+        <v>103.0154349816507</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>62.39711001640939</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>307.4571019070341</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>76.65465119039666</v>
       </c>
       <c r="V7" t="n">
-        <v>117.841936446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>307.7054270351427</v>
+        <v>61.34716459085467</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>16.80874690482713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>80.23790880443542</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>268.1779244693582</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044554</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>631.9617651335546</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>392.1527130811802</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949993</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824371</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3872457.574941612</v>
+        <v>3868361.933436844</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.3533321221818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>37.50894619165377</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>183.5075633549403</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>56.96527437617349</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>61.05510538238496</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>209.5725029308039</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062657</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>287.8938041265583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3467445476594</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560546</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812146</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>124.8808320771208</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.3285337992671</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>73.56194264363164</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>11.76284745948067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>258.5202580022772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>19.17715139986178</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.586232500086</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>35.6665036611733</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>108.3764982651487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>150.4550614441516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>162.4537609173321</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>162.4537609173321</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>162.4537609173321</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>155.5082601681286</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.83159218888</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1897.83159218888</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1897.83159218888</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386097</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386097</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>385.0914841366271</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386097</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386097</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>935.4781228213758</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>524.4922180317683</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>108.7874677560571</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2500.667504781584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2291.921863387409</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2291.921863387409</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1960.858976043838</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1608.090320773724</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.090320773724</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.950988797912</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.11813092506</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>623.11813092506</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.173316690278</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1322.173316690278</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.756146653317</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>804.7665957552997</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.7665957552997</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>353.3552283577043</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2828.826251643334</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2455.360493382254</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>803.2707707770319</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>653.1541313646961</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>505.241037782303</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>358.3510902843926</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3416.439860727478</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3416.439860727478</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>3195.647281583948</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.090220510648</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1703.405732304761</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.9885622678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.999011369783</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.2064322262529</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>632.7243904253734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>814.3728552556131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2408.997192166032</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2226.142357820936</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>815.6411092982063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,25 +7162,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2270.446169463826</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.370942808024</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.686454602137</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1437.269284565176</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.279733667159</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.4871545236284</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1786.311582407852</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1496.894412370891</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1268.904861472874</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>265.030432851514</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9556134883061986</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.3036423121233</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>125.1956044930018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9468079295565</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>28.00274033431378</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.0073229893824</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.78901421003569</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>112.9489693570391</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>109.0289520621396</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633467.886304915</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633467.886304915</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819089</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309549</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744279</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.25639174428</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744346</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542695.9673750708</v>
+        <v>-542695.967375071</v>
       </c>
       <c r="C6" t="n">
         <v>572055.8162008487</v>
       </c>
       <c r="D6" t="n">
-        <v>412040.3534528491</v>
+        <v>412040.3534528484</v>
       </c>
       <c r="E6" t="n">
-        <v>351705.6866747491</v>
+        <v>351358.3074203923</v>
       </c>
       <c r="F6" t="n">
-        <v>677118.1484821045</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="G6" t="n">
-        <v>677118.1484821045</v>
+        <v>676770.7692277477</v>
       </c>
       <c r="H6" t="n">
-        <v>677118.1484821044</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="I6" t="n">
-        <v>677118.1484821045</v>
+        <v>676770.7692277473</v>
       </c>
       <c r="J6" t="n">
-        <v>509512.9706721221</v>
+        <v>509165.591417765</v>
       </c>
       <c r="K6" t="n">
-        <v>677118.1484821045</v>
+        <v>676770.7692277475</v>
       </c>
       <c r="L6" t="n">
-        <v>628824.1784739135</v>
+        <v>628476.7992195566</v>
       </c>
       <c r="M6" t="n">
-        <v>592063.1205465926</v>
+        <v>591715.7412922354</v>
       </c>
       <c r="N6" t="n">
-        <v>677118.1484821045</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="O6" t="n">
-        <v>677118.1484821043</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="P6" t="n">
-        <v>677118.1484821044</v>
+        <v>676770.7692277476</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.38050954129875</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>374.0387565813002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>151.3613353340879</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>103.0154349816507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>244.0532781862319</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>62.39711001640939</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>76.65465119039666</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>126.9470448471878</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>61.34716459085467</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.23790880443542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.028473857802275e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.56674739427399e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286958</v>
       </c>
       <c r="N12" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890163</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,31 +32551,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33043,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>547.6926421044554</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33757,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>465.217062384076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>187.543109731792</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>631.9617651335546</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>392.1527130811802</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066774</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.97430510914212</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36691,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>405.5586081824371</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37405,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>322.6208179396315</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3868361.933436844</v>
+        <v>3870122.46373963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>37.50894619165377</v>
+        <v>187.5175205517489</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>32.88586545339163</v>
       </c>
       <c r="S4" t="n">
-        <v>43.30112502764958</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>56.96527437617349</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.44683811067705</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>283.9746808062657</v>
+        <v>193.2852664785231</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>75.41231307284818</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>1.294096136280229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C2" t="n">
-        <v>162.4537609173321</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D2" t="n">
-        <v>162.4537609173321</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E2" t="n">
-        <v>162.4537609173321</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="F2" t="n">
-        <v>155.5082601681286</v>
+        <v>611.0912166555029</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844854</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159571</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1603.22807416198</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.124203461141</v>
+        <v>1603.22807416198</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.124203461141</v>
+        <v>1603.22807416198</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1314.109736665818</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1059.425248459931</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>770.0080784229705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.26637541962</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>1321.26637541962</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.26637541962</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>935.4781228213758</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>524.4922180317683</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>108.7874677560571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4606,13 +4606,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>2351.330183441093</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,13 +4649,13 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473119</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473119</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577043</v>
+        <v>601.3302584915466</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758596</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,37 +4898,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>852.6343643406959</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>702.5177249283602</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>554.6046313459671</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>407.7146838480567</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>240.0118472227756</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468474</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400726</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703123</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096652</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636217</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,49 +5415,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2437.724555511392</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5652,16 +5652,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,40 +6615,40 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0.955613488307165</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.8903782529639</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194126</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253405</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819089</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309549</v>
+        <v>87914.29116309565</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744279</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.25639174428</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,10 +26441,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542695.967375071</v>
+        <v>-542695.9673750711</v>
       </c>
       <c r="C6" t="n">
         <v>572055.8162008487</v>
       </c>
       <c r="D6" t="n">
-        <v>412040.3534528484</v>
+        <v>412040.3534528491</v>
       </c>
       <c r="E6" t="n">
-        <v>351358.3074203923</v>
+        <v>351670.9487493128</v>
       </c>
       <c r="F6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.4105566689</v>
       </c>
       <c r="G6" t="n">
-        <v>676770.7692277477</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="H6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.4105566685</v>
       </c>
       <c r="I6" t="n">
-        <v>676770.7692277473</v>
+        <v>677083.410556669</v>
       </c>
       <c r="J6" t="n">
-        <v>509165.591417765</v>
+        <v>509478.2327466857</v>
       </c>
       <c r="K6" t="n">
-        <v>676770.7692277475</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="L6" t="n">
-        <v>628476.7992195566</v>
+        <v>628789.4405484782</v>
       </c>
       <c r="M6" t="n">
-        <v>591715.7412922354</v>
+        <v>592028.3826211571</v>
       </c>
       <c r="N6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="O6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.4105566686</v>
       </c>
       <c r="P6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.410556669</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>374.0387565813002</v>
+        <v>224.0301822212051</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.671706966182</v>
       </c>
       <c r="S4" t="n">
-        <v>151.3613353340879</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>244.0532781862319</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.794130606736</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9470448471878</v>
+        <v>217.6364591749303</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>69.3427018414726</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.028473857802275e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286958</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>231.5286848890163</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>187.543109731792</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807092</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066774</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>92.97430510914212</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
